--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3163.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3163.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.770927954125024</v>
+        <v>0.8633707761764526</v>
       </c>
       <c r="B1">
-        <v>1.928422110758095</v>
+        <v>1.540903568267822</v>
       </c>
       <c r="C1">
-        <v>1.984780075929698</v>
+        <v>4.362637042999268</v>
       </c>
       <c r="D1">
-        <v>2.556713044614116</v>
+        <v>2.080730438232422</v>
       </c>
       <c r="E1">
-        <v>4.041278234621177</v>
+        <v>1.515071749687195</v>
       </c>
     </row>
   </sheetData>
